--- a/Tecnologia da Informação/Backlog.xlsx
+++ b/Tecnologia da Informação/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Desktop\Faculdade\Pesquisa e Inovação\ProjetoIndividual\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C1B7D4-06A0-4290-8A13-E31530FB5A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA13E3-3655-4E25-8D55-3C5F91505DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +177,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -217,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -401,11 +394,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF191D12"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF191D12"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF191D12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,30 +482,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1123,7 @@
   <dimension ref="A1:DI36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1173,7 @@
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7">
@@ -1200,7 +1196,7 @@
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="24">
         <v>5</v>
       </c>
     </row>
@@ -1220,7 +1216,7 @@
       <c r="E4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="24">
         <v>3</v>
       </c>
     </row>
@@ -1269,7 +1265,7 @@
       <c r="A7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -1329,7 +1325,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1350,7 +1346,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1371,30 +1367,32 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="1"/>
+    <row r="13" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="28"/>
     </row>
-    <row r="14" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="28"/>
+    </row>
     <row r="15" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1409,549 +1407,549 @@
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="30"/>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="30"/>
-      <c r="BL22" s="30"/>
-      <c r="BM22" s="30"/>
-      <c r="BN22" s="30"/>
-      <c r="BO22" s="30"/>
-      <c r="BP22" s="30"/>
-      <c r="BQ22" s="30"/>
-      <c r="BR22" s="30"/>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
-      <c r="BU22" s="30"/>
-      <c r="BV22" s="30"/>
-      <c r="BW22" s="30"/>
-      <c r="BX22" s="30"/>
-      <c r="BY22" s="30"/>
-      <c r="BZ22" s="30"/>
-      <c r="CA22" s="30"/>
-      <c r="CB22" s="30"/>
-      <c r="CC22" s="30"/>
-      <c r="CD22" s="30"/>
-      <c r="CE22" s="30"/>
-      <c r="CF22" s="30"/>
-      <c r="CG22" s="30"/>
-      <c r="CH22" s="30"/>
-      <c r="CI22" s="30"/>
-      <c r="CJ22" s="30"/>
-      <c r="CK22" s="30"/>
-      <c r="CL22" s="30"/>
-      <c r="CM22" s="30"/>
-      <c r="CN22" s="30"/>
-      <c r="CO22" s="30"/>
-      <c r="CP22" s="30"/>
-      <c r="CQ22" s="30"/>
-      <c r="CR22" s="30"/>
-      <c r="CS22" s="30"/>
-      <c r="CT22" s="30"/>
-      <c r="CU22" s="30"/>
-      <c r="CV22" s="30"/>
-      <c r="CW22" s="30"/>
-      <c r="CX22" s="30"/>
-      <c r="CY22" s="30"/>
-      <c r="CZ22" s="30"/>
-      <c r="DA22" s="30"/>
-      <c r="DB22" s="30"/>
-      <c r="DC22" s="30"/>
-      <c r="DD22" s="30"/>
-      <c r="DE22" s="30"/>
-      <c r="DF22" s="30"/>
-      <c r="DG22" s="30"/>
-      <c r="DH22" s="30"/>
-      <c r="DI22" s="30"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
+      <c r="BH22" s="26"/>
+      <c r="BI22" s="26"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="26"/>
+      <c r="BM22" s="26"/>
+      <c r="BN22" s="26"/>
+      <c r="BO22" s="26"/>
+      <c r="BP22" s="26"/>
+      <c r="BQ22" s="26"/>
+      <c r="BR22" s="26"/>
+      <c r="BS22" s="26"/>
+      <c r="BT22" s="26"/>
+      <c r="BU22" s="26"/>
+      <c r="BV22" s="26"/>
+      <c r="BW22" s="26"/>
+      <c r="BX22" s="26"/>
+      <c r="BY22" s="26"/>
+      <c r="BZ22" s="26"/>
+      <c r="CA22" s="26"/>
+      <c r="CB22" s="26"/>
+      <c r="CC22" s="26"/>
+      <c r="CD22" s="26"/>
+      <c r="CE22" s="26"/>
+      <c r="CF22" s="26"/>
+      <c r="CG22" s="26"/>
+      <c r="CH22" s="26"/>
+      <c r="CI22" s="26"/>
+      <c r="CJ22" s="26"/>
+      <c r="CK22" s="26"/>
+      <c r="CL22" s="26"/>
+      <c r="CM22" s="26"/>
+      <c r="CN22" s="26"/>
+      <c r="CO22" s="26"/>
+      <c r="CP22" s="26"/>
+      <c r="CQ22" s="26"/>
+      <c r="CR22" s="26"/>
+      <c r="CS22" s="26"/>
+      <c r="CT22" s="26"/>
+      <c r="CU22" s="26"/>
+      <c r="CV22" s="26"/>
+      <c r="CW22" s="26"/>
+      <c r="CX22" s="26"/>
+      <c r="CY22" s="26"/>
+      <c r="CZ22" s="26"/>
+      <c r="DA22" s="26"/>
+      <c r="DB22" s="26"/>
+      <c r="DC22" s="26"/>
+      <c r="DD22" s="26"/>
+      <c r="DE22" s="26"/>
+      <c r="DF22" s="26"/>
+      <c r="DG22" s="26"/>
+      <c r="DH22" s="26"/>
+      <c r="DI22" s="26"/>
     </row>
     <row r="23" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
-      <c r="BF23" s="30"/>
-      <c r="BG23" s="30"/>
-      <c r="BH23" s="30"/>
-      <c r="BI23" s="30"/>
-      <c r="BJ23" s="30"/>
-      <c r="BK23" s="30"/>
-      <c r="BL23" s="30"/>
-      <c r="BM23" s="30"/>
-      <c r="BN23" s="30"/>
-      <c r="BO23" s="30"/>
-      <c r="BP23" s="30"/>
-      <c r="BQ23" s="30"/>
-      <c r="BR23" s="30"/>
-      <c r="BS23" s="30"/>
-      <c r="BT23" s="30"/>
-      <c r="BU23" s="30"/>
-      <c r="BV23" s="30"/>
-      <c r="BW23" s="30"/>
-      <c r="BX23" s="30"/>
-      <c r="BY23" s="30"/>
-      <c r="BZ23" s="30"/>
-      <c r="CA23" s="30"/>
-      <c r="CB23" s="30"/>
-      <c r="CC23" s="30"/>
-      <c r="CD23" s="30"/>
-      <c r="CE23" s="30"/>
-      <c r="CF23" s="30"/>
-      <c r="CG23" s="30"/>
-      <c r="CH23" s="30"/>
-      <c r="CI23" s="30"/>
-      <c r="CJ23" s="30"/>
-      <c r="CK23" s="30"/>
-      <c r="CL23" s="30"/>
-      <c r="CM23" s="30"/>
-      <c r="CN23" s="30"/>
-      <c r="CO23" s="30"/>
-      <c r="CP23" s="30"/>
-      <c r="CQ23" s="30"/>
-      <c r="CR23" s="30"/>
-      <c r="CS23" s="30"/>
-      <c r="CT23" s="30"/>
-      <c r="CU23" s="30"/>
-      <c r="CV23" s="30"/>
-      <c r="CW23" s="30"/>
-      <c r="CX23" s="30"/>
-      <c r="CY23" s="30"/>
-      <c r="CZ23" s="30"/>
-      <c r="DA23" s="30"/>
-      <c r="DB23" s="30"/>
-      <c r="DC23" s="30"/>
-      <c r="DD23" s="30"/>
-      <c r="DE23" s="30"/>
-      <c r="DF23" s="30"/>
-      <c r="DG23" s="30"/>
-      <c r="DH23" s="30"/>
-      <c r="DI23" s="30"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
+      <c r="BH23" s="26"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="26"/>
+      <c r="BP23" s="26"/>
+      <c r="BQ23" s="26"/>
+      <c r="BR23" s="26"/>
+      <c r="BS23" s="26"/>
+      <c r="BT23" s="26"/>
+      <c r="BU23" s="26"/>
+      <c r="BV23" s="26"/>
+      <c r="BW23" s="26"/>
+      <c r="BX23" s="26"/>
+      <c r="BY23" s="26"/>
+      <c r="BZ23" s="26"/>
+      <c r="CA23" s="26"/>
+      <c r="CB23" s="26"/>
+      <c r="CC23" s="26"/>
+      <c r="CD23" s="26"/>
+      <c r="CE23" s="26"/>
+      <c r="CF23" s="26"/>
+      <c r="CG23" s="26"/>
+      <c r="CH23" s="26"/>
+      <c r="CI23" s="26"/>
+      <c r="CJ23" s="26"/>
+      <c r="CK23" s="26"/>
+      <c r="CL23" s="26"/>
+      <c r="CM23" s="26"/>
+      <c r="CN23" s="26"/>
+      <c r="CO23" s="26"/>
+      <c r="CP23" s="26"/>
+      <c r="CQ23" s="26"/>
+      <c r="CR23" s="26"/>
+      <c r="CS23" s="26"/>
+      <c r="CT23" s="26"/>
+      <c r="CU23" s="26"/>
+      <c r="CV23" s="26"/>
+      <c r="CW23" s="26"/>
+      <c r="CX23" s="26"/>
+      <c r="CY23" s="26"/>
+      <c r="CZ23" s="26"/>
+      <c r="DA23" s="26"/>
+      <c r="DB23" s="26"/>
+      <c r="DC23" s="26"/>
+      <c r="DD23" s="26"/>
+      <c r="DE23" s="26"/>
+      <c r="DF23" s="26"/>
+      <c r="DG23" s="26"/>
+      <c r="DH23" s="26"/>
+      <c r="DI23" s="26"/>
     </row>
     <row r="24" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="30"/>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="30"/>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
-      <c r="CL24" s="30"/>
-      <c r="CM24" s="30"/>
-      <c r="CN24" s="30"/>
-      <c r="CO24" s="30"/>
-      <c r="CP24" s="30"/>
-      <c r="CQ24" s="30"/>
-      <c r="CR24" s="30"/>
-      <c r="CS24" s="30"/>
-      <c r="CT24" s="30"/>
-      <c r="CU24" s="30"/>
-      <c r="CV24" s="30"/>
-      <c r="CW24" s="30"/>
-      <c r="CX24" s="30"/>
-      <c r="CY24" s="30"/>
-      <c r="CZ24" s="30"/>
-      <c r="DA24" s="30"/>
-      <c r="DB24" s="30"/>
-      <c r="DC24" s="30"/>
-      <c r="DD24" s="30"/>
-      <c r="DE24" s="30"/>
-      <c r="DF24" s="30"/>
-      <c r="DG24" s="30"/>
-      <c r="DH24" s="30"/>
-      <c r="DI24" s="30"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
+      <c r="BH24" s="26"/>
+      <c r="BI24" s="26"/>
+      <c r="BJ24" s="26"/>
+      <c r="BK24" s="26"/>
+      <c r="BL24" s="26"/>
+      <c r="BM24" s="26"/>
+      <c r="BN24" s="26"/>
+      <c r="BO24" s="26"/>
+      <c r="BP24" s="26"/>
+      <c r="BQ24" s="26"/>
+      <c r="BR24" s="26"/>
+      <c r="BS24" s="26"/>
+      <c r="BT24" s="26"/>
+      <c r="BU24" s="26"/>
+      <c r="BV24" s="26"/>
+      <c r="BW24" s="26"/>
+      <c r="BX24" s="26"/>
+      <c r="BY24" s="26"/>
+      <c r="BZ24" s="26"/>
+      <c r="CA24" s="26"/>
+      <c r="CB24" s="26"/>
+      <c r="CC24" s="26"/>
+      <c r="CD24" s="26"/>
+      <c r="CE24" s="26"/>
+      <c r="CF24" s="26"/>
+      <c r="CG24" s="26"/>
+      <c r="CH24" s="26"/>
+      <c r="CI24" s="26"/>
+      <c r="CJ24" s="26"/>
+      <c r="CK24" s="26"/>
+      <c r="CL24" s="26"/>
+      <c r="CM24" s="26"/>
+      <c r="CN24" s="26"/>
+      <c r="CO24" s="26"/>
+      <c r="CP24" s="26"/>
+      <c r="CQ24" s="26"/>
+      <c r="CR24" s="26"/>
+      <c r="CS24" s="26"/>
+      <c r="CT24" s="26"/>
+      <c r="CU24" s="26"/>
+      <c r="CV24" s="26"/>
+      <c r="CW24" s="26"/>
+      <c r="CX24" s="26"/>
+      <c r="CY24" s="26"/>
+      <c r="CZ24" s="26"/>
+      <c r="DA24" s="26"/>
+      <c r="DB24" s="26"/>
+      <c r="DC24" s="26"/>
+      <c r="DD24" s="26"/>
+      <c r="DE24" s="26"/>
+      <c r="DF24" s="26"/>
+      <c r="DG24" s="26"/>
+      <c r="DH24" s="26"/>
+      <c r="DI24" s="26"/>
     </row>
     <row r="25" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="30"/>
-      <c r="BC25" s="30"/>
-      <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
-      <c r="BF25" s="30"/>
-      <c r="BG25" s="30"/>
-      <c r="BH25" s="30"/>
-      <c r="BI25" s="30"/>
-      <c r="BJ25" s="30"/>
-      <c r="BK25" s="30"/>
-      <c r="BL25" s="30"/>
-      <c r="BM25" s="30"/>
-      <c r="BN25" s="30"/>
-      <c r="BO25" s="30"/>
-      <c r="BP25" s="30"/>
-      <c r="BQ25" s="30"/>
-      <c r="BR25" s="30"/>
-      <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
-      <c r="BU25" s="30"/>
-      <c r="BV25" s="30"/>
-      <c r="BW25" s="30"/>
-      <c r="BX25" s="30"/>
-      <c r="BY25" s="30"/>
-      <c r="BZ25" s="30"/>
-      <c r="CA25" s="30"/>
-      <c r="CB25" s="30"/>
-      <c r="CC25" s="30"/>
-      <c r="CD25" s="30"/>
-      <c r="CE25" s="30"/>
-      <c r="CF25" s="30"/>
-      <c r="CG25" s="30"/>
-      <c r="CH25" s="30"/>
-      <c r="CI25" s="30"/>
-      <c r="CJ25" s="30"/>
-      <c r="CK25" s="30"/>
-      <c r="CL25" s="30"/>
-      <c r="CM25" s="30"/>
-      <c r="CN25" s="30"/>
-      <c r="CO25" s="30"/>
-      <c r="CP25" s="30"/>
-      <c r="CQ25" s="30"/>
-      <c r="CR25" s="30"/>
-      <c r="CS25" s="30"/>
-      <c r="CT25" s="30"/>
-      <c r="CU25" s="30"/>
-      <c r="CV25" s="30"/>
-      <c r="CW25" s="30"/>
-      <c r="CX25" s="30"/>
-      <c r="CY25" s="30"/>
-      <c r="CZ25" s="30"/>
-      <c r="DA25" s="30"/>
-      <c r="DB25" s="30"/>
-      <c r="DC25" s="30"/>
-      <c r="DD25" s="30"/>
-      <c r="DE25" s="30"/>
-      <c r="DF25" s="30"/>
-      <c r="DG25" s="30"/>
-      <c r="DH25" s="30"/>
-      <c r="DI25" s="30"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
+      <c r="BH25" s="26"/>
+      <c r="BI25" s="26"/>
+      <c r="BJ25" s="26"/>
+      <c r="BK25" s="26"/>
+      <c r="BL25" s="26"/>
+      <c r="BM25" s="26"/>
+      <c r="BN25" s="26"/>
+      <c r="BO25" s="26"/>
+      <c r="BP25" s="26"/>
+      <c r="BQ25" s="26"/>
+      <c r="BR25" s="26"/>
+      <c r="BS25" s="26"/>
+      <c r="BT25" s="26"/>
+      <c r="BU25" s="26"/>
+      <c r="BV25" s="26"/>
+      <c r="BW25" s="26"/>
+      <c r="BX25" s="26"/>
+      <c r="BY25" s="26"/>
+      <c r="BZ25" s="26"/>
+      <c r="CA25" s="26"/>
+      <c r="CB25" s="26"/>
+      <c r="CC25" s="26"/>
+      <c r="CD25" s="26"/>
+      <c r="CE25" s="26"/>
+      <c r="CF25" s="26"/>
+      <c r="CG25" s="26"/>
+      <c r="CH25" s="26"/>
+      <c r="CI25" s="26"/>
+      <c r="CJ25" s="26"/>
+      <c r="CK25" s="26"/>
+      <c r="CL25" s="26"/>
+      <c r="CM25" s="26"/>
+      <c r="CN25" s="26"/>
+      <c r="CO25" s="26"/>
+      <c r="CP25" s="26"/>
+      <c r="CQ25" s="26"/>
+      <c r="CR25" s="26"/>
+      <c r="CS25" s="26"/>
+      <c r="CT25" s="26"/>
+      <c r="CU25" s="26"/>
+      <c r="CV25" s="26"/>
+      <c r="CW25" s="26"/>
+      <c r="CX25" s="26"/>
+      <c r="CY25" s="26"/>
+      <c r="CZ25" s="26"/>
+      <c r="DA25" s="26"/>
+      <c r="DB25" s="26"/>
+      <c r="DC25" s="26"/>
+      <c r="DD25" s="26"/>
+      <c r="DE25" s="26"/>
+      <c r="DF25" s="26"/>
+      <c r="DG25" s="26"/>
+      <c r="DH25" s="26"/>
+      <c r="DI25" s="26"/>
     </row>
     <row r="26" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="30"/>
-      <c r="BE26" s="30"/>
-      <c r="BF26" s="30"/>
-      <c r="BG26" s="30"/>
-      <c r="BH26" s="30"/>
-      <c r="BI26" s="30"/>
-      <c r="BJ26" s="30"/>
-      <c r="BK26" s="30"/>
-      <c r="BL26" s="30"/>
-      <c r="BM26" s="30"/>
-      <c r="BN26" s="30"/>
-      <c r="BO26" s="30"/>
-      <c r="BP26" s="30"/>
-      <c r="BQ26" s="30"/>
-      <c r="BR26" s="30"/>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
-      <c r="BU26" s="30"/>
-      <c r="BV26" s="30"/>
-      <c r="BW26" s="30"/>
-      <c r="BX26" s="30"/>
-      <c r="BY26" s="30"/>
-      <c r="BZ26" s="30"/>
-      <c r="CA26" s="30"/>
-      <c r="CB26" s="30"/>
-      <c r="CC26" s="30"/>
-      <c r="CD26" s="30"/>
-      <c r="CE26" s="30"/>
-      <c r="CF26" s="30"/>
-      <c r="CG26" s="30"/>
-      <c r="CH26" s="30"/>
-      <c r="CI26" s="30"/>
-      <c r="CJ26" s="30"/>
-      <c r="CK26" s="30"/>
-      <c r="CL26" s="30"/>
-      <c r="CM26" s="30"/>
-      <c r="CN26" s="30"/>
-      <c r="CO26" s="30"/>
-      <c r="CP26" s="30"/>
-      <c r="CQ26" s="30"/>
-      <c r="CR26" s="30"/>
-      <c r="CS26" s="30"/>
-      <c r="CT26" s="30"/>
-      <c r="CU26" s="30"/>
-      <c r="CV26" s="30"/>
-      <c r="CW26" s="30"/>
-      <c r="CX26" s="30"/>
-      <c r="CY26" s="30"/>
-      <c r="CZ26" s="30"/>
-      <c r="DA26" s="30"/>
-      <c r="DB26" s="30"/>
-      <c r="DC26" s="30"/>
-      <c r="DD26" s="30"/>
-      <c r="DE26" s="30"/>
-      <c r="DF26" s="30"/>
-      <c r="DG26" s="30"/>
-      <c r="DH26" s="30"/>
-      <c r="DI26" s="30"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
+      <c r="BH26" s="26"/>
+      <c r="BI26" s="26"/>
+      <c r="BJ26" s="26"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26" s="26"/>
+      <c r="BP26" s="26"/>
+      <c r="BQ26" s="26"/>
+      <c r="BR26" s="26"/>
+      <c r="BS26" s="26"/>
+      <c r="BT26" s="26"/>
+      <c r="BU26" s="26"/>
+      <c r="BV26" s="26"/>
+      <c r="BW26" s="26"/>
+      <c r="BX26" s="26"/>
+      <c r="BY26" s="26"/>
+      <c r="BZ26" s="26"/>
+      <c r="CA26" s="26"/>
+      <c r="CB26" s="26"/>
+      <c r="CC26" s="26"/>
+      <c r="CD26" s="26"/>
+      <c r="CE26" s="26"/>
+      <c r="CF26" s="26"/>
+      <c r="CG26" s="26"/>
+      <c r="CH26" s="26"/>
+      <c r="CI26" s="26"/>
+      <c r="CJ26" s="26"/>
+      <c r="CK26" s="26"/>
+      <c r="CL26" s="26"/>
+      <c r="CM26" s="26"/>
+      <c r="CN26" s="26"/>
+      <c r="CO26" s="26"/>
+      <c r="CP26" s="26"/>
+      <c r="CQ26" s="26"/>
+      <c r="CR26" s="26"/>
+      <c r="CS26" s="26"/>
+      <c r="CT26" s="26"/>
+      <c r="CU26" s="26"/>
+      <c r="CV26" s="26"/>
+      <c r="CW26" s="26"/>
+      <c r="CX26" s="26"/>
+      <c r="CY26" s="26"/>
+      <c r="CZ26" s="26"/>
+      <c r="DA26" s="26"/>
+      <c r="DB26" s="26"/>
+      <c r="DC26" s="26"/>
+      <c r="DD26" s="26"/>
+      <c r="DE26" s="26"/>
+      <c r="DF26" s="26"/>
+      <c r="DG26" s="26"/>
+      <c r="DH26" s="26"/>
+      <c r="DI26" s="26"/>
     </row>
     <row r="27" spans="1:113" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
@@ -1960,222 +1958,222 @@
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
-      <c r="AU27" s="30"/>
-      <c r="AV27" s="30"/>
-      <c r="AW27" s="30"/>
-      <c r="AX27" s="30"/>
-      <c r="AY27" s="30"/>
-      <c r="AZ27" s="30"/>
-      <c r="BA27" s="30"/>
-      <c r="BB27" s="30"/>
-      <c r="BC27" s="30"/>
-      <c r="BD27" s="30"/>
-      <c r="BE27" s="30"/>
-      <c r="BF27" s="30"/>
-      <c r="BG27" s="30"/>
-      <c r="BH27" s="30"/>
-      <c r="BI27" s="30"/>
-      <c r="BJ27" s="30"/>
-      <c r="BK27" s="30"/>
-      <c r="BL27" s="30"/>
-      <c r="BM27" s="30"/>
-      <c r="BN27" s="30"/>
-      <c r="BO27" s="30"/>
-      <c r="BP27" s="30"/>
-      <c r="BQ27" s="30"/>
-      <c r="BR27" s="30"/>
-      <c r="BS27" s="30"/>
-      <c r="BT27" s="30"/>
-      <c r="BU27" s="30"/>
-      <c r="BV27" s="30"/>
-      <c r="BW27" s="30"/>
-      <c r="BX27" s="30"/>
-      <c r="BY27" s="30"/>
-      <c r="BZ27" s="30"/>
-      <c r="CA27" s="30"/>
-      <c r="CB27" s="30"/>
-      <c r="CC27" s="30"/>
-      <c r="CD27" s="30"/>
-      <c r="CE27" s="30"/>
-      <c r="CF27" s="30"/>
-      <c r="CG27" s="30"/>
-      <c r="CH27" s="30"/>
-      <c r="CI27" s="30"/>
-      <c r="CJ27" s="30"/>
-      <c r="CK27" s="30"/>
-      <c r="CL27" s="30"/>
-      <c r="CM27" s="30"/>
-      <c r="CN27" s="30"/>
-      <c r="CO27" s="30"/>
-      <c r="CP27" s="30"/>
-      <c r="CQ27" s="30"/>
-      <c r="CR27" s="30"/>
-      <c r="CS27" s="30"/>
-      <c r="CT27" s="30"/>
-      <c r="CU27" s="30"/>
-      <c r="CV27" s="30"/>
-      <c r="CW27" s="30"/>
-      <c r="CX27" s="30"/>
-      <c r="CY27" s="30"/>
-      <c r="CZ27" s="30"/>
-      <c r="DA27" s="30"/>
-      <c r="DB27" s="30"/>
-      <c r="DC27" s="30"/>
-      <c r="DD27" s="30"/>
-      <c r="DE27" s="30"/>
-      <c r="DF27" s="30"/>
-      <c r="DG27" s="30"/>
-      <c r="DH27" s="30"/>
-      <c r="DI27" s="30"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="26"/>
+      <c r="BO27" s="26"/>
+      <c r="BP27" s="26"/>
+      <c r="BQ27" s="26"/>
+      <c r="BR27" s="26"/>
+      <c r="BS27" s="26"/>
+      <c r="BT27" s="26"/>
+      <c r="BU27" s="26"/>
+      <c r="BV27" s="26"/>
+      <c r="BW27" s="26"/>
+      <c r="BX27" s="26"/>
+      <c r="BY27" s="26"/>
+      <c r="BZ27" s="26"/>
+      <c r="CA27" s="26"/>
+      <c r="CB27" s="26"/>
+      <c r="CC27" s="26"/>
+      <c r="CD27" s="26"/>
+      <c r="CE27" s="26"/>
+      <c r="CF27" s="26"/>
+      <c r="CG27" s="26"/>
+      <c r="CH27" s="26"/>
+      <c r="CI27" s="26"/>
+      <c r="CJ27" s="26"/>
+      <c r="CK27" s="26"/>
+      <c r="CL27" s="26"/>
+      <c r="CM27" s="26"/>
+      <c r="CN27" s="26"/>
+      <c r="CO27" s="26"/>
+      <c r="CP27" s="26"/>
+      <c r="CQ27" s="26"/>
+      <c r="CR27" s="26"/>
+      <c r="CS27" s="26"/>
+      <c r="CT27" s="26"/>
+      <c r="CU27" s="26"/>
+      <c r="CV27" s="26"/>
+      <c r="CW27" s="26"/>
+      <c r="CX27" s="26"/>
+      <c r="CY27" s="26"/>
+      <c r="CZ27" s="26"/>
+      <c r="DA27" s="26"/>
+      <c r="DB27" s="26"/>
+      <c r="DC27" s="26"/>
+      <c r="DD27" s="26"/>
+      <c r="DE27" s="26"/>
+      <c r="DF27" s="26"/>
+      <c r="DG27" s="26"/>
+      <c r="DH27" s="26"/>
+      <c r="DI27" s="26"/>
     </row>
     <row r="28" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
-      <c r="AU28" s="30"/>
-      <c r="AV28" s="30"/>
-      <c r="AW28" s="30"/>
-      <c r="AX28" s="30"/>
-      <c r="AY28" s="30"/>
-      <c r="AZ28" s="30"/>
-      <c r="BA28" s="30"/>
-      <c r="BB28" s="30"/>
-      <c r="BC28" s="30"/>
-      <c r="BD28" s="30"/>
-      <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
-      <c r="BJ28" s="30"/>
-      <c r="BK28" s="30"/>
-      <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="30"/>
-      <c r="BO28" s="30"/>
-      <c r="BP28" s="30"/>
-      <c r="BQ28" s="30"/>
-      <c r="BR28" s="30"/>
-      <c r="BS28" s="30"/>
-      <c r="BT28" s="30"/>
-      <c r="BU28" s="30"/>
-      <c r="BV28" s="30"/>
-      <c r="BW28" s="30"/>
-      <c r="BX28" s="30"/>
-      <c r="BY28" s="30"/>
-      <c r="BZ28" s="30"/>
-      <c r="CA28" s="30"/>
-      <c r="CB28" s="30"/>
-      <c r="CC28" s="30"/>
-      <c r="CD28" s="30"/>
-      <c r="CE28" s="30"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
-      <c r="CH28" s="30"/>
-      <c r="CI28" s="30"/>
-      <c r="CJ28" s="30"/>
-      <c r="CK28" s="30"/>
-      <c r="CL28" s="30"/>
-      <c r="CM28" s="30"/>
-      <c r="CN28" s="30"/>
-      <c r="CO28" s="30"/>
-      <c r="CP28" s="30"/>
-      <c r="CQ28" s="30"/>
-      <c r="CR28" s="30"/>
-      <c r="CS28" s="30"/>
-      <c r="CT28" s="30"/>
-      <c r="CU28" s="30"/>
-      <c r="CV28" s="30"/>
-      <c r="CW28" s="30"/>
-      <c r="CX28" s="30"/>
-      <c r="CY28" s="30"/>
-      <c r="CZ28" s="30"/>
-      <c r="DA28" s="30"/>
-      <c r="DB28" s="30"/>
-      <c r="DC28" s="30"/>
-      <c r="DD28" s="30"/>
-      <c r="DE28" s="30"/>
-      <c r="DF28" s="30"/>
-      <c r="DG28" s="30"/>
-      <c r="DH28" s="30"/>
-      <c r="DI28" s="30"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="26"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="26"/>
+      <c r="BO28" s="26"/>
+      <c r="BP28" s="26"/>
+      <c r="BQ28" s="26"/>
+      <c r="BR28" s="26"/>
+      <c r="BS28" s="26"/>
+      <c r="BT28" s="26"/>
+      <c r="BU28" s="26"/>
+      <c r="BV28" s="26"/>
+      <c r="BW28" s="26"/>
+      <c r="BX28" s="26"/>
+      <c r="BY28" s="26"/>
+      <c r="BZ28" s="26"/>
+      <c r="CA28" s="26"/>
+      <c r="CB28" s="26"/>
+      <c r="CC28" s="26"/>
+      <c r="CD28" s="26"/>
+      <c r="CE28" s="26"/>
+      <c r="CF28" s="26"/>
+      <c r="CG28" s="26"/>
+      <c r="CH28" s="26"/>
+      <c r="CI28" s="26"/>
+      <c r="CJ28" s="26"/>
+      <c r="CK28" s="26"/>
+      <c r="CL28" s="26"/>
+      <c r="CM28" s="26"/>
+      <c r="CN28" s="26"/>
+      <c r="CO28" s="26"/>
+      <c r="CP28" s="26"/>
+      <c r="CQ28" s="26"/>
+      <c r="CR28" s="26"/>
+      <c r="CS28" s="26"/>
+      <c r="CT28" s="26"/>
+      <c r="CU28" s="26"/>
+      <c r="CV28" s="26"/>
+      <c r="CW28" s="26"/>
+      <c r="CX28" s="26"/>
+      <c r="CY28" s="26"/>
+      <c r="CZ28" s="26"/>
+      <c r="DA28" s="26"/>
+      <c r="DB28" s="26"/>
+      <c r="DC28" s="26"/>
+      <c r="DD28" s="26"/>
+      <c r="DE28" s="26"/>
+      <c r="DF28" s="26"/>
+      <c r="DG28" s="26"/>
+      <c r="DH28" s="26"/>
+      <c r="DI28" s="26"/>
     </row>
     <row r="29" spans="1:113" s="22" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
@@ -2184,113 +2182,113 @@
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
-      <c r="AU29" s="30"/>
-      <c r="AV29" s="30"/>
-      <c r="AW29" s="30"/>
-      <c r="AX29" s="30"/>
-      <c r="AY29" s="30"/>
-      <c r="AZ29" s="30"/>
-      <c r="BA29" s="30"/>
-      <c r="BB29" s="30"/>
-      <c r="BC29" s="30"/>
-      <c r="BD29" s="30"/>
-      <c r="BE29" s="30"/>
-      <c r="BF29" s="30"/>
-      <c r="BG29" s="30"/>
-      <c r="BH29" s="30"/>
-      <c r="BI29" s="30"/>
-      <c r="BJ29" s="30"/>
-      <c r="BK29" s="30"/>
-      <c r="BL29" s="30"/>
-      <c r="BM29" s="30"/>
-      <c r="BN29" s="30"/>
-      <c r="BO29" s="30"/>
-      <c r="BP29" s="30"/>
-      <c r="BQ29" s="30"/>
-      <c r="BR29" s="30"/>
-      <c r="BS29" s="30"/>
-      <c r="BT29" s="30"/>
-      <c r="BU29" s="30"/>
-      <c r="BV29" s="30"/>
-      <c r="BW29" s="30"/>
-      <c r="BX29" s="30"/>
-      <c r="BY29" s="30"/>
-      <c r="BZ29" s="30"/>
-      <c r="CA29" s="30"/>
-      <c r="CB29" s="30"/>
-      <c r="CC29" s="30"/>
-      <c r="CD29" s="30"/>
-      <c r="CE29" s="30"/>
-      <c r="CF29" s="30"/>
-      <c r="CG29" s="30"/>
-      <c r="CH29" s="30"/>
-      <c r="CI29" s="30"/>
-      <c r="CJ29" s="30"/>
-      <c r="CK29" s="30"/>
-      <c r="CL29" s="30"/>
-      <c r="CM29" s="30"/>
-      <c r="CN29" s="30"/>
-      <c r="CO29" s="30"/>
-      <c r="CP29" s="30"/>
-      <c r="CQ29" s="30"/>
-      <c r="CR29" s="30"/>
-      <c r="CS29" s="30"/>
-      <c r="CT29" s="30"/>
-      <c r="CU29" s="30"/>
-      <c r="CV29" s="30"/>
-      <c r="CW29" s="30"/>
-      <c r="CX29" s="30"/>
-      <c r="CY29" s="30"/>
-      <c r="CZ29" s="30"/>
-      <c r="DA29" s="30"/>
-      <c r="DB29" s="30"/>
-      <c r="DC29" s="30"/>
-      <c r="DD29" s="30"/>
-      <c r="DE29" s="30"/>
-      <c r="DF29" s="30"/>
-      <c r="DG29" s="30"/>
-      <c r="DH29" s="30"/>
-      <c r="DI29" s="30"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="26"/>
+      <c r="BG29" s="26"/>
+      <c r="BH29" s="26"/>
+      <c r="BI29" s="26"/>
+      <c r="BJ29" s="26"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="26"/>
+      <c r="BP29" s="26"/>
+      <c r="BQ29" s="26"/>
+      <c r="BR29" s="26"/>
+      <c r="BS29" s="26"/>
+      <c r="BT29" s="26"/>
+      <c r="BU29" s="26"/>
+      <c r="BV29" s="26"/>
+      <c r="BW29" s="26"/>
+      <c r="BX29" s="26"/>
+      <c r="BY29" s="26"/>
+      <c r="BZ29" s="26"/>
+      <c r="CA29" s="26"/>
+      <c r="CB29" s="26"/>
+      <c r="CC29" s="26"/>
+      <c r="CD29" s="26"/>
+      <c r="CE29" s="26"/>
+      <c r="CF29" s="26"/>
+      <c r="CG29" s="26"/>
+      <c r="CH29" s="26"/>
+      <c r="CI29" s="26"/>
+      <c r="CJ29" s="26"/>
+      <c r="CK29" s="26"/>
+      <c r="CL29" s="26"/>
+      <c r="CM29" s="26"/>
+      <c r="CN29" s="26"/>
+      <c r="CO29" s="26"/>
+      <c r="CP29" s="26"/>
+      <c r="CQ29" s="26"/>
+      <c r="CR29" s="26"/>
+      <c r="CS29" s="26"/>
+      <c r="CT29" s="26"/>
+      <c r="CU29" s="26"/>
+      <c r="CV29" s="26"/>
+      <c r="CW29" s="26"/>
+      <c r="CX29" s="26"/>
+      <c r="CY29" s="26"/>
+      <c r="CZ29" s="26"/>
+      <c r="DA29" s="26"/>
+      <c r="DB29" s="26"/>
+      <c r="DC29" s="26"/>
+      <c r="DD29" s="26"/>
+      <c r="DE29" s="26"/>
+      <c r="DF29" s="26"/>
+      <c r="DG29" s="26"/>
+      <c r="DH29" s="26"/>
+      <c r="DI29" s="26"/>
     </row>
     <row r="30" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:113" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Tecnologia da Informação/Backlog.xlsx
+++ b/Tecnologia da Informação/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Desktop\Faculdade\Pesquisa e Inovação\ProjetoIndividual\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FA13E3-3655-4E25-8D55-3C5F91505DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A98C8B0-C9ED-49A1-A083-E66EE916DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="1185" windowWidth="19650" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Tela contato</t>
   </si>
   <si>
-    <t xml:space="preserve">Tela  com entradas: </t>
-  </si>
-  <si>
     <t>Tela com informações sobre mim e o site</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Criação das tabeladas determinadas na modelagem lógic</t>
+  </si>
+  <si>
+    <t>Tela  com entradas: nome, email, telefone e mensagem</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:DI36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>4</v>
@@ -1225,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>4</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>3</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>4</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="8" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>4</v>
@@ -1305,10 +1305,10 @@
     </row>
     <row r="9" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="10" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>10</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="11" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>10</v>
@@ -1371,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
